--- a/Publish/source/CustomRegion/CustomRegionRat_v2.xlsx
+++ b/Publish/source/CustomRegion/CustomRegionRat_v2.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\HBP_Analytics\Nutil\Nutil_releases\Resources_for_Nutil\CustomRegionFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\kant\med-imb-u1\sharoncy\pc\Desktop\CustomRegions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="9405" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CustomRegionRat" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -563,10 +563,10 @@
   <dimension ref="A1:Q400"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" style="8" customWidth="1"/>
@@ -575,7 +575,7 @@
     <col min="5" max="5" width="16.28515625" style="8" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" style="8" customWidth="1"/>
     <col min="7" max="7" width="16.140625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="8" customWidth="1"/>
     <col min="9" max="9" width="14" style="8" customWidth="1"/>
     <col min="10" max="11" width="15.42578125" style="8" customWidth="1"/>
     <col min="12" max="1025" width="8.5703125" customWidth="1"/>
@@ -804,9 +804,7 @@
       <c r="I6" s="6">
         <v>81</v>
       </c>
-      <c r="J6" s="6">
-        <v>74</v>
-      </c>
+      <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -835,9 +833,7 @@
       <c r="I7" s="6">
         <v>43</v>
       </c>
-      <c r="J7" s="6">
-        <v>75</v>
-      </c>
+      <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
@@ -862,9 +858,7 @@
         <v>55</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="6">
-        <v>56</v>
-      </c>
+      <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
@@ -1060,7 +1054,9 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="H16" s="6">
+        <v>74</v>
+      </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -1081,7 +1077,9 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="H17" s="6">
+        <v>75</v>
+      </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -1102,7 +1100,9 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="H18" s="6">
+        <v>56</v>
+      </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
